--- a/namesToRemember.xlsx
+++ b/namesToRemember.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\unterricht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\junk\unterricht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{5BE1A08A-7DB5-43EB-995E-3DCDC8CC6CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDD1147-A9C4-4D10-95CB-FAC944CCC834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="22305" windowHeight="15105"/>
+    <workbookView xWindow="2730" yWindow="1095" windowWidth="22170" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,25 +35,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>did</t>
+  </si>
+  <si>
+    <t>Linus Torvalds</t>
+  </si>
+  <si>
+    <t>Linux </t>
+  </si>
+  <si>
+    <t>coy</t>
+  </si>
+  <si>
+    <t>Flynn's</t>
+  </si>
+  <si>
+    <t>Flynn's taximony</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Work Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,14 +412,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -408,7 +432,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>